--- a/biology/Botanique/Chelonanthus_purpurascens/Chelonanthus_purpurascens.xlsx
+++ b/biology/Botanique/Chelonanthus_purpurascens/Chelonanthus_purpurascens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chelonanthus purpurascens est une espèce de plante herbacées de la moité nord de l'Amérique du Sud, appartenant à la famille des Gentianaceae.
-Elle est connue au Guyana sous les noms euri-balli (Arawak), wild tabacco et en Guyane comme amanwei[3], aman etni (Palikur), grand centorel (créole), silikaleipo sili (Wayãpi), tabaco-bravo (Portugais) (noms partagés avec Helia alata)[4].
+Elle est connue au Guyana sous les noms euri-balli (Arawak), wild tabacco et en Guyane comme amanwei, aman etni (Palikur), grand centorel (créole), silikaleipo sili (Wayãpi), tabaco-bravo (Portugais) (noms partagés avec Helia alata).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve Chelonanthus purpurascens de la Colombie au Brésil en passant par le Venezuela, les Guyanes, l'Équateur, le Pérou et la Bolivie[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve Chelonanthus purpurascens de la Colombie au Brésil en passant par le Venezuela, les Guyanes, l'Équateur, le Pérou et la Bolivie
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chelonanthus purpurascens est une herbacée érigée, rarement prostrée, voire un sous-arbrisseau, peu ramifié à ramifié, atteignant jusqu'à 2,7 m de haut.
 Les tiges, atteignant jusqu'à 0,5 cm de diamètre, sont cylindriques à légèrement quadrangulaires (ailes larges de 0,1-0,4(-1) mm), avec des entre-nœuds longs de 0,5-15,1 cm. 
@@ -555,11 +571,11 @@
 La corolle est bleue, pourpre, lavande (parfois avec la face interne de la gorge blanche), en forme d'entonnoir à tubulaire, parfois presque campanulée, long de 18-72(-87) mm pour 9-36 mm de large à l'ouverure, avec des lobes ovales à circulaires, obtus à l'apex mesurant 5-17 x 3-14 mm. 
 Les étamines sont non exsertes, parfois longues, dépassant légèrement la corolle (filaments longs de 16-45 mm, fortement courbés près de l'anthère).
 Les anthères sont blanches, jaunes à orange, oblongues, recourbées et longues de 2,6-6,7 mm 
-Le pollen présente une exine différentiellement réticulé avec des boucles polaires[5],[6],[7].
+Le pollen présente une exine différentiellement réticulé avec des boucles polaires.
 Le pistil est long de 27-44 mm.
 L'ovaire mesure 4-5,4 x 1,2-1,3 mm, avec une style long de 20-50 mm et les lobes du stigmate elliptique, mesurant 1,9-5,4 x 0,7-2,1 mm.
 Le fruit est une capsules horizontale à noueuse, brune, ellipsoïde, mesurant 6-20 x 3-9 mm, ave le style persistant à son sommet.
-Les graines sont brunes, mesurant 0,1-0,4 mm de diamètre[8],[3].
+Les graines sont brunes, mesurant 0,1-0,4 mm de diamètre,.
 </t>
         </is>
       </c>
@@ -588,15 +604,17 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Chelonanthus purpurascens est présent à 0-3 500 m d'altitude, dans les forêts humides, les lisières des forêts, les forêts-galeries, les savanes et le long des rivières, rarement trouvé dans les forêts de nuages, le campo rupestre, la végétation de type broussailleux et les bords de routes, et plus communément trouvé sur les sables blancs, les sols pauvres en nutriments ainsi que sur les sols rocheux et plus rarement sur les sols argileux ou latéritiques[8],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chelonanthus purpurascens est présent à 0-3 500 m d'altitude, dans les forêts humides, les lisières des forêts, les forêts-galeries, les savanes et le long des rivières, rarement trouvé dans les forêts de nuages, le campo rupestre, la végétation de type broussailleux et les bords de routes, et plus communément trouvé sur les sables blancs, les sols pauvres en nutriments ainsi que sur les sols rocheux et plus rarement sur les sols argileux ou latéritiques,.
 Chelonanthus purpurascens a été étudié sous divers aspects : 
-sa phylogénie[9],[10]
-ses nectaires extrafloraux isolés dispersés en abondance sur la surface inférieure et en faible quantité sur la surface spérieure des feuilles[11],[12]
-ses caractéristiques chromosomiques[13]
-la morphologie de son pollen[14],[15]
-les caractéristiques fonctionnelles de ses graines[16]</t>
+sa phylogénie,
+ses nectaires extrafloraux isolés dispersés en abondance sur la surface inférieure et en faible quantité sur la surface spérieure des feuilles,
+ses caractéristiques chromosomiques
+la morphologie de son pollen,
+les caractéristiques fonctionnelles de ses graines</t>
         </is>
       </c>
     </row>
@@ -624,11 +642,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Guyana, les Arawaks utilisaient l'infusion de feuilles contre la variole, et contre les mycoses[3].
-En Guyane, les Palikur préparent un remède très amer qui nettoie la bile, et un bain pour une traintement contre la gale[4].
-Chelonanthus purpurascens est employé comme fébrifuge[17],[18],[19],[20],[21].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Guyana, les Arawaks utilisaient l'infusion de feuilles contre la variole, et contre les mycoses.
+En Guyane, les Palikur préparent un remède très amer qui nettoie la bile, et un bain pour une traintement contre la gale.
+Chelonanthus purpurascens est employé comme fébrifuge.
 </t>
         </is>
       </c>
@@ -657,9 +677,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet a décrit cette plante pour la première fois sous le nom de Lisianthius purpurascens, et en a proposé le protologue suivant[20] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet a décrit cette plante pour la première fois sous le nom de Lisianthius purpurascens, et en a proposé le protologue suivant : 
 « 1. LISYANTHUS (purpuraſcens) foliis ovatis, acucis, integerrimis. (Tabula 79.) 
 Planta annua, caules plures, bipedales, è radice flbroſa &amp; ramoſa emittens. Caulis tetragonus, nodoſus, erectus. Folia oppoſita, ſeſſilia, ovato-acuminata, ſubcarnoſa, glabra, glauca, integerrima. Flores terminales, ramuſculo dichotomo inſidentes. Corolla purpuraſcens.
 Tota planta guſtu amara eſt.
